--- a/Änderungslog.xlsx
+++ b/Änderungslog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manu\Documents\GitHub\FloodVPN_WebMap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD953CA-8067-4697-8329-1A623712B0E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5218405E-E707-4DD3-BCCF-2ACCC25CC586}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Änderungen</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>// #_2_# Anfang // bis // #_2_# Ende //</t>
+  </si>
+  <si>
+    <t>// #_3_# Anfang // bis // #_3_# Ende //</t>
+  </si>
+  <si>
+    <t>Erstellung Downloadlinks in der Legende, diverse kleine Änderungen</t>
   </si>
 </sst>
 </file>
@@ -184,9 +190,6 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -210,6 +213,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,7 +500,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,294 +514,307 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>44035</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>44035</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>44163</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="A6" s="13"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="A7" s="13"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="A8" s="13"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="A9" s="13"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="A10" s="13"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="A11" s="13"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="A12" s="13"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="A13" s="13"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="A14" s="13"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="A15" s="13"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="A16" s="13"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="A17" s="13"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="A18" s="13"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="A19" s="13"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="A20" s="13"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="A21" s="13"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="A22" s="13"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="A23" s="13"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="A24" s="13"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="A25" s="13"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="A26" s="13"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="A27" s="13"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="A28" s="13"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="A29" s="13"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="A30" s="13"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="A31" s="13"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="A32" s="13"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="A33" s="13"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="A34" s="13"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="A35" s="13"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="A36" s="13"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
